--- a/consumption_tables/Total energy consumption._              Billion Btu/Biomass total consumption_              Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Biomass total consumption_              Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,601 @@
     <t>AL</t>
   </si>
   <si>
+    <t>8.724132278941196%</t>
+  </si>
+  <si>
+    <t>9.355510879737155%</t>
+  </si>
+  <si>
+    <t>0.6313786007959585%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>8.306899633725312%</t>
+  </si>
+  <si>
+    <t>8.293304986631954%</t>
+  </si>
+  <si>
+    <t>-0.013594647093357892%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>1.4635039955863762%</t>
+  </si>
+  <si>
+    <t>2.3425839819482825%</t>
+  </si>
+  <si>
+    <t>0.8790799863619063%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>2.9896896692801787%</t>
+  </si>
+  <si>
+    <t>3.7588095368365653%</t>
+  </si>
+  <si>
+    <t>0.7691198675563866%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>1.2623913080762172%</t>
+  </si>
+  <si>
+    <t>2.440436500617811%</t>
+  </si>
+  <si>
+    <t>1.1780451925415936%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>3.7370246718340203%</t>
+  </si>
+  <si>
+    <t>4.650200505054537%</t>
+  </si>
+  <si>
+    <t>0.9131758332205164%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>0.6142246441490111%</t>
+  </si>
+  <si>
+    <t>2.208154236282215%</t>
+  </si>
+  <si>
+    <t>1.593929592133204%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>5.21000750108432%</t>
+  </si>
+  <si>
+    <t>6.092823741452415%</t>
+  </si>
+  <si>
+    <t>0.8828162403680953%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>8.447048080864619%</t>
+  </si>
+  <si>
+    <t>9.31700719973513%</t>
+  </si>
+  <si>
+    <t>0.8699591188705114%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>8.065434430233246%</t>
+  </si>
+  <si>
+    <t>4.066667138780106%</t>
+  </si>
+  <si>
+    <t>-3.99876729145314%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>6.8561146287390144%</t>
+  </si>
+  <si>
+    <t>15.797497993042548%</t>
+  </si>
+  <si>
+    <t>8.941383364303533%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>6.006206001766095%</t>
+  </si>
+  <si>
+    <t>7.313635782845091%</t>
+  </si>
+  <si>
+    <t>1.3074297810789952%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>2.8247711993968463%</t>
+  </si>
+  <si>
+    <t>3.7126972612954443%</t>
+  </si>
+  <si>
+    <t>0.887926061898598%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>2.235148593307594%</t>
+  </si>
+  <si>
+    <t>4.042767499763734%</t>
+  </si>
+  <si>
+    <t>1.80761890645614%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>1.2801290256035183%</t>
+  </si>
+  <si>
+    <t>4.076550551388238%</t>
+  </si>
+  <si>
+    <t>2.7964215257847203%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>1.3861743515702387%</t>
+  </si>
+  <si>
+    <t>3.0807151186107484%</t>
+  </si>
+  <si>
+    <t>1.6945407670405097%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>3.0713439118826864%</t>
+  </si>
+  <si>
+    <t>3.148560965770958%</t>
+  </si>
+  <si>
+    <t>0.07721705388827171%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>3.700131215872145%</t>
+  </si>
+  <si>
+    <t>4.0815747418952295%</t>
+  </si>
+  <si>
+    <t>0.3814435260230846%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>2.0898100581023775%</t>
+  </si>
+  <si>
+    <t>3.646819572608409%</t>
+  </si>
+  <si>
+    <t>1.5570095145060314%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>23.835922601864972%</t>
+  </si>
+  <si>
+    <t>25.683287768489503%</t>
+  </si>
+  <si>
+    <t>1.847365166624531%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>2.9375385119621504%</t>
+  </si>
+  <si>
+    <t>4.956478187781226%</t>
+  </si>
+  <si>
+    <t>2.0189396758190754%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>3.680976778247755%</t>
+  </si>
+  <si>
+    <t>8.788019352276175%</t>
+  </si>
+  <si>
+    <t>5.107042574028419%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>1.3573882929893546%</t>
+  </si>
+  <si>
+    <t>3.806137642602203%</t>
+  </si>
+  <si>
+    <t>2.4487493496128483%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>8.244809822246799%</t>
+  </si>
+  <si>
+    <t>6.313642744263656%</t>
+  </si>
+  <si>
+    <t>-1.931167077983143%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>3.3856901577034733%</t>
+  </si>
+  <si>
+    <t>2.302559307571647%</t>
+  </si>
+  <si>
+    <t>-1.0831308501318264%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>4.743057815579156%</t>
+  </si>
+  <si>
+    <t>5.680505634739842%</t>
+  </si>
+  <si>
+    <t>0.9374478191606865%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>1.0473532969388994%</t>
+  </si>
+  <si>
+    <t>4.865174475733381%</t>
+  </si>
+  <si>
+    <t>3.817821178794482%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>1.4761095559873112%</t>
+  </si>
+  <si>
+    <t>13.103416748620653%</t>
+  </si>
+  <si>
+    <t>11.627307192633342%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>10.181151969490195%</t>
+  </si>
+  <si>
+    <t>13.983631157155308%</t>
+  </si>
+  <si>
+    <t>3.8024791876651136%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>1.128793609899864%</t>
+  </si>
+  <si>
+    <t>2.7805353346858115%</t>
+  </si>
+  <si>
+    <t>1.6517417247859474%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>0.9878629667074085%</t>
+  </si>
+  <si>
+    <t>2.37966596453001%</t>
+  </si>
+  <si>
+    <t>1.3918029978226012%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>0.8070438329248083%</t>
+  </si>
+  <si>
+    <t>1.8573201259972472%</t>
+  </si>
+  <si>
+    <t>1.050276293072439%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>2.607086170881171%</t>
+  </si>
+  <si>
+    <t>3.3929910065104534%</t>
+  </si>
+  <si>
+    <t>0.7859048356292826%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>2.0607404610033275%</t>
+  </si>
+  <si>
+    <t>3.22771821461824%</t>
+  </si>
+  <si>
+    <t>1.1669777536149124%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>1.5489805437341135%</t>
+  </si>
+  <si>
+    <t>2.538215798929406%</t>
+  </si>
+  <si>
+    <t>0.9892352551952923%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>5.900146800845638%</t>
+  </si>
+  <si>
+    <t>7.905679152747175%</t>
+  </si>
+  <si>
+    <t>2.005532351901537%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>1.687585703512737%</t>
+  </si>
+  <si>
+    <t>3.6084976268664177%</t>
+  </si>
+  <si>
+    <t>1.9209119233536807%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>2.0483672298853817%</t>
+  </si>
+  <si>
+    <t>3.397775606675154%</t>
+  </si>
+  <si>
+    <t>1.3494083767897722%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>5.7178329338752345%</t>
+  </si>
+  <si>
+    <t>7.093105924944555%</t>
+  </si>
+  <si>
+    <t>1.3752729910693207%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>1.4743507150877064%</t>
+  </si>
+  <si>
+    <t>16.212819329385475%</t>
+  </si>
+  <si>
+    <t>14.73846861429777%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>3.3896526978720365%</t>
+  </si>
+  <si>
+    <t>4.497169948861613%</t>
+  </si>
+  <si>
+    <t>1.1075172509895763%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>0.9511757532567303%</t>
+  </si>
+  <si>
+    <t>1.672139645749789%</t>
+  </si>
+  <si>
+    <t>0.7209638924930587%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>0.6428953993322846%</t>
+  </si>
+  <si>
+    <t>1.4832728840321558%</t>
+  </si>
+  <si>
+    <t>0.8403774846998713%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>4.685124839396176%</t>
+  </si>
+  <si>
+    <t>6.337165323801716%</t>
+  </si>
+  <si>
+    <t>1.65204048440554%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>4.183974379300504%</t>
+  </si>
+  <si>
+    <t>13.73939393939394%</t>
+  </si>
+  <si>
+    <t>9.555419560093437%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>4.613956306528612%</t>
+  </si>
+  <si>
+    <t>6.1101572424781%</t>
+  </si>
+  <si>
+    <t>1.4962009359494877%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>5.523223509143185%</t>
+  </si>
+  <si>
+    <t>7.293098808345522%</t>
+  </si>
+  <si>
+    <t>1.7698752992023365%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>0.710974470778935%</t>
+  </si>
+  <si>
+    <t>3.3096533168153925%</t>
+  </si>
+  <si>
+    <t>2.5986788460364574%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>0.5440238739607091%</t>
+  </si>
+  <si>
+    <t>0.8847563769665495%</t>
+  </si>
+  <si>
+    <t>0.34073250300584046%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>3.238801671947396%</t>
+  </si>
+  <si>
+    <t>4.643712543324994%</t>
+  </si>
+  <si>
+    <t>1.4049108713775977%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1081,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.08724132278941196</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.09355510879737154</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.006313786007959579</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.03587753086419753</v>
@@ -655,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>71100</v>
@@ -672,14 +1122,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.08306899633725312</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.08293304986631954</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.0001359464709335817</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.03016546457361052</v>
@@ -696,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>13741</v>
@@ -713,14 +1163,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.01463503995586376</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.02342583981948283</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.008790799863619064</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.003729913137893594</v>
@@ -737,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>222587</v>
@@ -754,14 +1204,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.02989689669280179</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.03758809536836565</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.007691198675563865</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.007429472630173565</v>
@@ -778,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>11777</v>
@@ -795,14 +1245,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.01262391308076217</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.02440436500617811</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.01178045192541593</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.003560157194679565</v>
@@ -819,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>28711</v>
@@ -836,14 +1286,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.0373702467183402</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.04650200505054537</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.009131758332205163</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.008721445929526124</v>
@@ -860,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1569</v>
@@ -877,14 +1327,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.006142246441490111</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.02208154236282215</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.01593929592133204</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.002341791044776119</v>
@@ -901,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>170933</v>
@@ -918,14 +1368,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.0521000750108432</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.06092823741452415</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.00882816240368095</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.0131153993708279</v>
@@ -942,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>188344</v>
@@ -959,14 +1409,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.08447048080864618</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.09317007199735131</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.008699591188705127</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.02891816367265469</v>
@@ -983,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>25924</v>
@@ -1000,14 +1450,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.08065434430233245</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.04066667138780106</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>-0.03998767291453139</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.02329200359389039</v>
@@ -1024,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>64850</v>
@@ -1041,14 +1491,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.06856114628739014</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.1579749799304255</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.08941383364303533</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.02331895001797914</v>
@@ -1065,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>24350</v>
@@ -1082,14 +1532,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.06006206001766096</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.0731363578284509</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.01307429781078995</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.02406126482213439</v>
@@ -1106,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>101160</v>
@@ -1123,14 +1573,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.02824771199396846</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.03712697261295445</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.008879260618985984</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.008832620274163974</v>
@@ -1147,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>55709</v>
@@ -1164,14 +1614,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.02235148593307594</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.04042767499763734</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.0180761890645614</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.01002320978769342</v>
@@ -1188,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>13652</v>
@@ -1205,14 +1655,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.01280129025603518</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.04076550551388238</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.0279642152578472</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.005502619911326078</v>
@@ -1229,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>20277</v>
@@ -1246,14 +1696,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.01386174351570239</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.03080715118610748</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.0169454076704051</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.005489171629669735</v>
@@ -1270,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>118502</v>
@@ -1287,14 +1737,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.03071343911882686</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.03148560965770958</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.0007721705388827153</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.02806774040738986</v>
@@ -1311,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>52055</v>
@@ -1328,14 +1778,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.03700131215872145</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.0408157474189523</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.003814435260230849</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.008642702971940893</v>
@@ -1352,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>26519</v>
@@ -1369,14 +1819,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.02089810058102378</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.03646819572608409</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.01557009514506031</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.005524791666666667</v>
@@ -1393,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>108995</v>
@@ -1410,14 +1860,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>0.2383592260186497</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>0.256832877684895</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.01847365166624532</v>
+      <c r="H21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>0.08846996753246754</v>
@@ -1434,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>84428</v>
@@ -1451,14 +1901,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.0293753851196215</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.04956478187781226</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.02018939675819076</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.009067554505423693</v>
@@ -1475,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>51571</v>
@@ -1492,14 +1942,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.03680976778247755</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.08788019352276175</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.0510704257402842</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.01174738041002278</v>
@@ -1516,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>20139</v>
@@ -1533,14 +1983,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.01357388292989355</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.03806137642602203</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.02448749349612848</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.003926496393059076</v>
@@ -1557,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>84840</v>
@@ -1574,14 +2024,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.08244809822246799</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.06313642744263656</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>-0.01931167077983142</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.03289647150058162</v>
@@ -1598,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>11767</v>
@@ -1615,14 +2065,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.03385690157703473</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.02302559307571647</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>-0.01083130850131827</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.01470875</v>
@@ -1639,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>97501</v>
@@ -1656,14 +2106,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.04743057815579155</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.05680505634739842</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.009374478191606868</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.01463100240096038</v>
@@ -1680,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3273</v>
@@ -1697,14 +2147,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.010473532969389</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.04865174475733381</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.03817821178794482</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.005130094043887147</v>
@@ -1721,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>7757</v>
@@ -1738,14 +2188,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.01476109555987311</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.1310341674862065</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.1162730719263334</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.006352989352989353</v>
@@ -1762,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>27230</v>
@@ -1779,14 +2229,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.1018115196949019</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.1398363115715531</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.03802479187665113</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.02448741007194245</v>
@@ -1803,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>25351</v>
@@ -1820,14 +2270,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.01128793609899864</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.02780535334685811</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.01651741724785947</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.003265618961741595</v>
@@ -1844,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5892</v>
@@ -1861,14 +2311,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.009878629667074085</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.0237966596453001</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.01391802997822601</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.003871222076215506</v>
@@ -1885,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3253</v>
@@ -1902,14 +2352,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.008070438329248083</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.01857320125997247</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>0.01050276293072439</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.002056257901390645</v>
@@ -1926,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>97387</v>
@@ -1943,14 +2393,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.02607086170881171</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.03392991006510453</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.007859048356292826</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.005404084124077465</v>
@@ -1967,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>77705</v>
@@ -1984,14 +2434,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.02060740461003328</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.0322771821461824</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.01166977753614912</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.007152522091310751</v>
@@ -2008,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>21420</v>
@@ -2025,14 +2475,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.01548980543734113</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.02538215798929406</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.009892352551952924</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.006802159415687519</v>
@@ -2049,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>57715</v>
@@ -2066,14 +2516,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.05900146800845638</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.07905679152747175</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.02005532351901537</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.02018006993006993</v>
@@ -2090,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>61362</v>
@@ -2107,14 +2557,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.01687585703512737</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.03608497626866418</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.01920911923353681</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.005155170965302865</v>
@@ -2131,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4357</v>
@@ -2148,14 +2598,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.02048367229885382</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.03397775606675154</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.01349408376789772</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.004331013916500994</v>
@@ -2172,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>72214</v>
@@ -2189,14 +2639,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.05717832933875235</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.07093105924944555</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.01375272991069321</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.02062667809197372</v>
@@ -2213,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3204</v>
@@ -2230,14 +2680,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.01474350715087706</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.1621281932938547</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>0.1473846861429777</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.004596843615494979</v>
@@ -2254,7 +2704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>60744</v>
@@ -2271,14 +2721,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.03389652697872036</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.04497169948861612</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.01107517250989576</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.01241193297915815</v>
@@ -2295,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>98022</v>
@@ -2312,14 +2762,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.009511757532567304</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.01672139645749789</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.007209638924930586</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.005746731547165386</v>
@@ -2336,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3445</v>
@@ -2353,14 +2803,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.006428953993322845</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.01483272884032156</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.008403774846998713</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.001990179087232813</v>
@@ -2377,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>92001</v>
@@ -2394,14 +2844,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.04685124839396176</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.06337165323801716</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.0165204048440554</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.01479829499758726</v>
@@ -2418,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5278</v>
@@ -2435,14 +2885,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.04183974379300504</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.1373939393939394</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.09555419560093437</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.009341592920353982</v>
@@ -2459,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>94426</v>
@@ -2476,14 +2926,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.04613956306528612</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.061101572424781</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.01496200935949488</v>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0.01925882112992046</v>
@@ -2500,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>82007</v>
@@ -2517,14 +2967,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.05523223509143185</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.07293098808345522</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.01769875299202336</v>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.0167190621814475</v>
@@ -2541,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5009</v>
@@ -2558,14 +3008,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.007109744707789351</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.03309653316815393</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.02598678846036458</v>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.002793641940881205</v>
@@ -2582,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2173</v>
@@ -2599,14 +3049,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.005440238739607091</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.008847563769665496</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.003407325030058405</v>
+      <c r="H50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0.004786343612334802</v>
@@ -2623,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>2736982</v>
@@ -2640,14 +3090,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.03238801671947396</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.04643712543324994</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.01404910871377598</v>
+      <c r="H51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.01096446240931324</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Biomass total consumption_              Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Biomass total consumption_              Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>1.3986025958639439%</t>
+  </si>
+  <si>
+    <t>0.8646681432703491%</t>
+  </si>
+  <si>
+    <t>-0.5339344525935947%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1013,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>145304</v>
+        <v>8169</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>178649</v>
+        <v>5360</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.229484391345042</v>
+        <v>0.6561390623087281</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1091,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.03587753086419753</v>
+        <v>0.01477215189873418</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.03680449114132674</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.0009269602771292129</v>
+        <v>0.007262872628726287</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>-0.007509279270007889</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1108,19 +1120,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>71100</v>
+        <v>145304</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>87536</v>
+        <v>178649</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.231167369901547</v>
+        <v>1.229484391345042</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.03016546457361052</v>
+        <v>0.03587753086419753</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.02939422431161854</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>-0.0007712402619919866</v>
+        <v>0.03680449114132674</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0.0009269602771292129</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1149,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13741</v>
+        <v>71100</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>33730</v>
+        <v>87536</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.454697620260534</v>
+        <v>1.231167369901547</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.003729913137893594</v>
+        <v>0.03016546457361052</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.004947198591962452</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.001217285454068858</v>
+        <v>0.02939422431161854</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>-0.0007712402619919866</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1190,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>222587</v>
+        <v>13741</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>288539</v>
+        <v>33730</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.29629762744455</v>
+        <v>2.454697620260534</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1214,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.007429472630173565</v>
+        <v>0.003729913137893594</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.007399574293481048</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>-2.989833669251631e-05</v>
+        <v>0.004947198591962452</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.001217285454068858</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>11777</v>
+        <v>222587</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>36124</v>
+        <v>288539</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.067334635306105</v>
+        <v>1.29629762744455</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1255,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.003560157194679565</v>
+        <v>0.007429472630173565</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.006629473297852817</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.003069316103173253</v>
+        <v>0.007399574293481048</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-2.989833669251631e-05</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>28711</v>
+        <v>11777</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>34951</v>
+        <v>36124</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.217338302392811</v>
+        <v>3.067334635306105</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1296,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.008721445929526124</v>
+        <v>0.003560157194679565</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.009749232914923292</v>
+        <v>0.006629473297852817</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.001027786985397168</v>
+        <v>0.003069316103173253</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1313,19 +1325,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1569</v>
+        <v>28711</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6139</v>
+        <v>34951</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.912683237731039</v>
+        <v>1.217338302392811</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1337,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.002341791044776119</v>
+        <v>0.008721445929526124</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.006503177966101695</v>
+        <v>0.009749232914923292</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.004161386921325576</v>
+        <v>0.001027786985397168</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1354,19 +1366,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>170933</v>
+        <v>1569</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>258439</v>
+        <v>6139</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.511931575529593</v>
+        <v>3.912683237731039</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1378,13 +1390,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.0131153993708279</v>
+        <v>0.002341791044776119</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.01276557174611015</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>-0.0003498276247177468</v>
+        <v>0.006503177966101695</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0.004161386921325576</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1395,19 +1407,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>188344</v>
+        <v>170933</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>265648</v>
+        <v>258439</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.410440470628212</v>
+        <v>1.511931575529593</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1419,13 +1431,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.02891816367265469</v>
+        <v>0.0131153993708279</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.02604647514462202</v>
+        <v>0.01276557174611015</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-0.002871688528032667</v>
+        <v>-0.0003498276247177468</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1436,19 +1448,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>25924</v>
+        <v>188344</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>11485</v>
+        <v>265648</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.4430257676284524</v>
+        <v>1.410440470628212</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1460,13 +1472,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.02329200359389039</v>
+        <v>0.02891816367265469</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.008059649122807018</v>
+        <v>0.02604647514462202</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-0.01523235447108337</v>
+        <v>-0.002871688528032667</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1477,19 +1489,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>64850</v>
+        <v>25924</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>236141</v>
+        <v>11485</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.641341557440247</v>
+        <v>0.4430257676284524</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1501,13 +1513,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.02331895001797914</v>
+        <v>0.02329200359389039</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.07563773222293402</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0.05231878220495487</v>
+        <v>0.008059649122807018</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.01523235447108337</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1518,19 +1530,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>24350</v>
+        <v>64850</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>38350</v>
+        <v>236141</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.574948665297741</v>
+        <v>3.641341557440247</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1542,13 +1554,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.02406126482213439</v>
+        <v>0.02331895001797914</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.02320024198427102</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>-0.000861022837863365</v>
+        <v>0.07563773222293402</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.05231878220495487</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1559,19 +1571,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>101160</v>
+        <v>24350</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>146382</v>
+        <v>38350</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.447034400948992</v>
+        <v>1.574948665297741</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1583,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.008832620274163974</v>
+        <v>0.02406126482213439</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.01140135524573565</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.002568734971571675</v>
+        <v>0.02320024198427102</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>-0.000861022837863365</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1600,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>55709</v>
+        <v>101160</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>115072</v>
+        <v>146382</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.065590838105154</v>
+        <v>1.447034400948992</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1624,13 +1636,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.01002320978769342</v>
+        <v>0.008832620274163974</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.0174008770603357</v>
+        <v>0.01140135524573565</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.007377667272642288</v>
+        <v>0.002568734971571675</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1641,19 +1653,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>13652</v>
+        <v>55709</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44134</v>
+        <v>115072</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3.232786404922356</v>
+        <v>2.065590838105154</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.005502619911326078</v>
+        <v>0.01002320978769342</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.01518197454420365</v>
+        <v>0.0174008770603357</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.009679354632877567</v>
+        <v>0.007377667272642288</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1682,19 +1694,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>20277</v>
+        <v>13652</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>53157</v>
+        <v>44134</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.621541648172807</v>
+        <v>3.232786404922356</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1706,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.005489171629669735</v>
+        <v>0.005502619911326078</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.0120128813559322</v>
+        <v>0.01518197454420365</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.006523709726262468</v>
+        <v>0.009679354632877567</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1723,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>118502</v>
+        <v>20277</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>134094</v>
+        <v>53157</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.131575838382475</v>
+        <v>2.621541648172807</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1747,13 +1759,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.02806774040738986</v>
+        <v>0.005489171629669735</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.02872006853715999</v>
+        <v>0.0120128813559322</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.0006523281297701293</v>
+        <v>0.006523709726262468</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1764,19 +1776,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>52055</v>
+        <v>118502</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>58973</v>
+        <v>134094</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.132897896455672</v>
+        <v>1.131575838382475</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1788,13 +1800,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.008642702971940893</v>
+        <v>0.02806774040738986</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.008692954009433962</v>
+        <v>0.02872006853715999</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.025103749306883e-05</v>
+        <v>0.0006523281297701293</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1805,19 +1817,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>26519</v>
+        <v>52055</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>51036</v>
+        <v>58973</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.924506957275915</v>
+        <v>1.132897896455672</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1829,13 +1841,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.005524791666666667</v>
+        <v>0.008642702971940893</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.008513094245204337</v>
+        <v>0.008692954009433962</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.00298830257853767</v>
+        <v>5.025103749306883e-05</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1846,37 +1858,37 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>108995</v>
+        <v>26519</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>104184</v>
+        <v>51036</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.9558603605669985</v>
+        <v>1.924506957275915</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
-      </c>
-      <c r="H21" s="4" t="s">
+        <v>5995000</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="2" t="s">
         <v>90</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="4" t="n">
-        <v>0.08846996753246754</v>
-      </c>
-      <c r="L21" s="4" t="n">
-        <v>0.07839277652370204</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>-0.0100771910087655</v>
+      <c r="K21" s="2" t="n">
+        <v>0.005524791666666667</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>0.008513094245204337</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>0.00298830257853767</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1887,37 +1899,37 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>84428</v>
+        <v>108995</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>137163</v>
+        <v>104184</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.624615056616288</v>
+        <v>0.9558603605669985</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>1329000</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K22" s="2" t="n">
-        <v>0.009067554505423693</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>0.013829703569268</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>0.004762149063844305</v>
+      <c r="K22" s="4" t="n">
+        <v>0.08846996753246754</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>0.07839277652370204</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>-0.0100771910087655</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1928,19 +1940,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>51571</v>
+        <v>84428</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>155541</v>
+        <v>137163</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3.016055535087549</v>
+        <v>1.624615056616288</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1952,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.01174738041002278</v>
+        <v>0.009067554505423693</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.02837303903684786</v>
+        <v>0.013829703569268</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.01662565862682509</v>
+        <v>0.004762149063844305</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1969,19 +1981,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>20139</v>
+        <v>51571</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>69529</v>
+        <v>155541</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>3.452455434728636</v>
+        <v>3.016055535087549</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1993,13 +2005,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.003926496393059076</v>
+        <v>0.01174738041002278</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.01144321922317314</v>
+        <v>0.02837303903684786</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.007516722830114065</v>
+        <v>0.01662565862682509</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2010,19 +2022,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>84840</v>
+        <v>20139</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>71514</v>
+        <v>69529</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.8429278642149929</v>
+        <v>3.452455434728636</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2034,13 +2046,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.03289647150058162</v>
+        <v>0.003926496393059076</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.02392572766811643</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>-0.008970743832465194</v>
+        <v>0.01144321922317314</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0.007516722830114065</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2051,19 +2063,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>11767</v>
+        <v>84840</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>9013</v>
+        <v>71514</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.7659556386504631</v>
+        <v>0.8429278642149929</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2075,13 +2087,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.01470875</v>
+        <v>0.03289647150058162</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.008733527131782945</v>
+        <v>0.02392572766811643</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>-0.005975222868217054</v>
+        <v>-0.008970743832465194</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2092,19 +2104,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>97501</v>
+        <v>11767</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>143360</v>
+        <v>9013</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.470343893908781</v>
+        <v>0.7659556386504631</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2116,13 +2128,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.01463100240096038</v>
+        <v>0.01470875</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.01428599900348779</v>
+        <v>0.008733527131782945</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.0003450033974725913</v>
+        <v>-0.005975222868217054</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2133,19 +2145,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>3273</v>
+        <v>97501</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>29559</v>
+        <v>143360</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>9.031164069660862</v>
+        <v>1.470343893908781</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2157,13 +2169,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.005130094043887147</v>
+        <v>0.01463100240096038</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.03904755614266843</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>0.03391746209878128</v>
+        <v>0.01428599900348779</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>-0.0003450033974725913</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,19 +2186,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7757</v>
+        <v>3273</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>111788</v>
+        <v>29559</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>14.41124145932706</v>
+        <v>9.031164069660862</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2198,13 +2210,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.006352989352989353</v>
+        <v>0.005130094043887147</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.03876144244105409</v>
+        <v>0.03904755614266843</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0.03240845308806474</v>
+        <v>0.03391746209878128</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2215,19 +2227,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>27230</v>
+        <v>7757</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>42680</v>
+        <v>111788</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.567388909291223</v>
+        <v>14.41124145932706</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2239,13 +2251,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.02448741007194245</v>
+        <v>0.006352989352989353</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.03209022556390977</v>
+        <v>0.03876144244105409</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.007602815491967327</v>
+        <v>0.03240845308806474</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2256,19 +2268,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>25351</v>
+        <v>27230</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>63609</v>
+        <v>42680</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.509131789672991</v>
+        <v>1.567388909291223</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2280,13 +2292,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.003265618961741595</v>
+        <v>0.02448741007194245</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.007119082260772244</v>
+        <v>0.03209022556390977</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.003853463299030649</v>
+        <v>0.007602815491967327</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2297,19 +2309,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>5892</v>
+        <v>25351</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>16076</v>
+        <v>63609</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.728445349626612</v>
+        <v>2.509131789672991</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2321,13 +2333,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.003871222076215506</v>
+        <v>0.003265618961741595</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.007728846153846154</v>
+        <v>0.007119082260772244</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.003857624077630648</v>
+        <v>0.003853463299030649</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2338,19 +2350,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3253</v>
+        <v>5892</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>12064</v>
+        <v>16076</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>3.708576698432216</v>
+        <v>2.728445349626612</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2362,13 +2374,13 @@
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.002056257901390645</v>
+        <v>0.003871222076215506</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.006369588173178458</v>
+        <v>0.007728846153846154</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.004313330271787813</v>
+        <v>0.003857624077630648</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2379,19 +2391,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>97387</v>
+        <v>3253</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>126371</v>
+        <v>12064</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.297616725024901</v>
+        <v>3.708576698432216</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2403,13 +2415,13 @@
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.005404084124077465</v>
+        <v>0.002056257901390645</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.006399503722084367</v>
+        <v>0.006369588173178458</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.0009954195980069018</v>
+        <v>0.004313330271787813</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2420,19 +2432,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>77705</v>
+        <v>97387</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>120744</v>
+        <v>126371</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.553876841902065</v>
+        <v>1.297616725024901</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2444,13 +2456,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.007152522091310751</v>
+        <v>0.005404084124077465</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.01040448082722964</v>
+        <v>0.006399503722084367</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.003251958735918892</v>
+        <v>0.0009954195980069018</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2461,19 +2473,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>21420</v>
+        <v>77705</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>41395</v>
+        <v>120744</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.932539682539683</v>
+        <v>1.553876841902065</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2485,13 +2497,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.006802159415687519</v>
+        <v>0.007152522091310751</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.01059508574353724</v>
+        <v>0.01040448082722964</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.003792926327849722</v>
+        <v>0.003251958735918892</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2502,19 +2514,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>57715</v>
+        <v>21420</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>75633</v>
+        <v>41395</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.310456553755523</v>
+        <v>1.932539682539683</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2526,13 +2538,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.02018006993006993</v>
+        <v>0.006802159415687519</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.01879080745341615</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>-0.001389262476653781</v>
+        <v>0.01059508574353724</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>0.003792926327849722</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2543,19 +2555,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>61362</v>
+        <v>57715</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>140059</v>
+        <v>75633</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2.282503829731756</v>
+        <v>1.310456553755523</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2567,13 +2579,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.005155170965302865</v>
+        <v>0.02018006993006993</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.01094895247029393</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>0.005793781504991069</v>
+        <v>0.01879080745341615</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>-0.001389262476653781</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2584,19 +2596,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>4357</v>
+        <v>61362</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6886</v>
+        <v>140059</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.580445260500344</v>
+        <v>2.282503829731756</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2608,13 +2620,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.004331013916500994</v>
+        <v>0.005155170965302865</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.006520833333333333</v>
+        <v>0.01094895247029393</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.002189819416832339</v>
+        <v>0.005793781504991069</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2625,19 +2637,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>72214</v>
+        <v>4357</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>116929</v>
+        <v>6886</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.619201262913009</v>
+        <v>1.580445260500344</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2649,13 +2661,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.02062667809197372</v>
+        <v>0.004331013916500994</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.02388743615934627</v>
+        <v>0.006520833333333333</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.003260758067372548</v>
+        <v>0.002189819416832339</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2666,19 +2678,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3204</v>
+        <v>72214</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>62176</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>19.40574282147316</v>
+        <v>116929</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1.619201262913009</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2686,17 +2698,17 @@
       <c r="I41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="2" t="s">
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.004596843615494979</v>
+        <v>0.02062667809197372</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.07246620046620046</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>0.06786935685070548</v>
+        <v>0.02388743615934627</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>0.003260758067372548</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2707,19 +2719,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>60744</v>
+        <v>3204</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>97474</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1.60466877387067</v>
+        <v>62176</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>19.40574282147316</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2727,17 +2739,17 @@
       <c r="I42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.01241193297915815</v>
+        <v>0.004596843615494979</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.01477998483699773</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>0.002368051857839573</v>
+        <v>0.07246620046620046</v>
+      </c>
+      <c r="M42" s="4" t="n">
+        <v>0.06786935685070548</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2748,19 +2760,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>98022</v>
+        <v>60744</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>215666</v>
+        <v>97474</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2.200179551529248</v>
+        <v>1.60466877387067</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2772,36 +2784,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.005746731547165386</v>
+        <v>0.01241193297915815</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.007862413415967918</v>
+        <v>0.01477998483699773</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.002115681868802532</v>
+        <v>0.002368051857839573</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>3445</v>
+        <v>98022</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>11733</v>
+        <v>215666</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>3.405805515239478</v>
+        <v>2.200179551529248</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2813,13 +2825,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.001990179087232813</v>
+        <v>0.005746731547165386</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.003922768304914745</v>
+        <v>0.007862413415967918</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.001932589217681931</v>
+        <v>0.002115681868802532</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2830,19 +2842,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>92001</v>
+        <v>3445</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>150045</v>
+        <v>11733</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.630906185802328</v>
+        <v>3.405805515239478</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2854,13 +2866,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.01479829499758726</v>
+        <v>0.001990179087232813</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.01793080783938815</v>
+        <v>0.003922768304914745</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.003132512841800885</v>
+        <v>0.001932589217681931</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2871,19 +2883,19 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>5278</v>
+        <v>92001</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>18136</v>
+        <v>150045</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>3.436150056839712</v>
+        <v>1.630906185802328</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
@@ -2895,13 +2907,13 @@
         <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.009341592920353982</v>
+        <v>0.01479829499758726</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.02897124600638978</v>
+        <v>0.01793080783938815</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.01962965308603579</v>
+        <v>0.003132512841800885</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2912,19 +2924,19 @@
         <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>94426</v>
+        <v>5278</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>121494</v>
+        <v>18136</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1.286658335627899</v>
+        <v>3.436150056839712</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>193</v>
@@ -2936,13 +2948,13 @@
         <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.01925882112992046</v>
+        <v>0.009341592920353982</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.01696843575418994</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>-0.002290385375730512</v>
+        <v>0.02897124600638978</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0.01962965308603579</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2953,19 +2965,19 @@
         <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>82007</v>
+        <v>94426</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>129539</v>
+        <v>121494</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.579609057763362</v>
+        <v>1.286658335627899</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>197</v>
@@ -2977,13 +2989,13 @@
         <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.0167190621814475</v>
+        <v>0.01925882112992046</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.02245821775312067</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>0.005739155571673163</v>
+        <v>0.01696843575418994</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>-0.002290385375730512</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2994,19 +3006,19 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>5009</v>
+        <v>82007</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>25647</v>
+        <v>129539</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>5.120183669395089</v>
+        <v>1.579609057763362</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>201</v>
@@ -3018,36 +3030,36 @@
         <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.002793641940881205</v>
+        <v>0.0167190621814475</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.01393101575230853</v>
+        <v>0.02245821775312067</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.01113737381142732</v>
+        <v>0.005739155571673163</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>2173</v>
+        <v>5009</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>4634</v>
+        <v>25647</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.132535664979291</v>
+        <v>5.120183669395089</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>205</v>
@@ -3059,36 +3071,36 @@
         <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.004786343612334802</v>
+        <v>0.002793641940881205</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.007894378194207836</v>
+        <v>0.01393101575230853</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.003108034581873034</v>
+        <v>0.01113737381142732</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>2736982</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>4516058</v>
+      <c r="C51" s="2" t="n">
+        <v>2173</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>4634</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.650013774295922</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>2.132535664979291</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>209</v>
@@ -3100,12 +3112,53 @@
         <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>0.004786343612334802</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.007894378194207836</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.003108034581873034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>2736982</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>4516058</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.650013774295922</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.01096446240931324</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.0140732322209307</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.00310876981161746</v>
       </c>
     </row>
